--- a/觅我2.0改版测试用例-v1.1.xlsx
+++ b/觅我2.0改版测试用例-v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1603">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2049,19 +2049,6 @@
   <si>
     <t>检查记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查能否播放历史文本记录</t>
-  </si>
-  <si>
-    <t>1.打开觅我APP-&gt;记录按扭-&gt;饮食
-2.上托加载历史记录
-3.播放历史文本
-4.查看历史图片</t>
-  </si>
-  <si>
-    <t>3.可正常播放历史文本
-4.可正常查看历史图片</t>
   </si>
   <si>
     <t>GZH_YSJL_007</t>
@@ -6317,10 +6304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无网络时查看二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6349,10 +6332,6 @@
   </si>
   <si>
     <t>4.能成功扫描二维码，并能获取所需字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7090,6 +7069,19 @@
   </si>
   <si>
     <t>GRZX_59</t>
+  </si>
+  <si>
+    <t>检查能否查看历史文本记录</t>
+  </si>
+  <si>
+    <t>1.打开觅我APP-&gt;记录按扭-&gt;饮食
+2.上托加载历史记录
+3.查看历史文本
+4.查看历史图片</t>
+  </si>
+  <si>
+    <t>3.可正常查看历史文本
+4.可正常查看历史图片</t>
   </si>
 </sst>
 </file>
@@ -8301,14 +8293,14 @@
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1" ht="54">
       <c r="A2" s="25" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="27" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>85</v>
@@ -8316,28 +8308,28 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="27" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="67.5">
       <c r="A3" s="25" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="27" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>85</v>
@@ -8345,28 +8337,28 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="27" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" s="24" customFormat="1" ht="54">
       <c r="A4" s="25" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="27" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>85</v>
@@ -8374,28 +8366,28 @@
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="27" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" s="24" customFormat="1" ht="67.5">
       <c r="A5" s="25" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="27" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>85</v>
@@ -8403,28 +8395,28 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="27" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" s="24" customFormat="1" ht="54">
       <c r="A6" s="25" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>85</v>
@@ -8432,28 +8424,28 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="27" t="s">
+        <v>971</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>974</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>977</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" s="24" customFormat="1" ht="54">
       <c r="A7" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>967</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>970</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="27" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>85</v>
@@ -8461,28 +8453,28 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="27" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" s="24" customFormat="1" ht="54">
       <c r="A8" s="25" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="27" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>85</v>
@@ -8490,28 +8482,28 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="27" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" s="24" customFormat="1" ht="67.5">
       <c r="A9" s="25" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="27" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>85</v>
@@ -8519,14 +8511,14 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="27" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
@@ -8542,8 +8534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8599,49 +8591,49 @@
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="40.5">
       <c r="A2" s="46" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>466</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="47" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="J2" s="46"/>
       <c r="K2" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="40.5">
       <c r="A3" s="46" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>466</v>
@@ -8649,30 +8641,30 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="47" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="40.5">
       <c r="A4" s="46" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>16</v>
@@ -8680,96 +8672,96 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="47" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="40.5">
       <c r="A5" s="46" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>466</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="27">
       <c r="A6" s="46" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="27">
       <c r="A7" s="46" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>16</v>
@@ -8777,30 +8769,30 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="40.5">
       <c r="A8" s="46" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>466</v>
@@ -8808,96 +8800,96 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="27">
       <c r="A9" s="46" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>474</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="27">
       <c r="A10" s="46" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>1084</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>1087</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="40.5">
       <c r="A11" s="46" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>466</v>
@@ -8905,30 +8897,30 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="33" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="54">
       <c r="A12" s="46" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>466</v>
@@ -8936,30 +8928,30 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="33" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="67.5">
       <c r="A13" s="46" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>16</v>
@@ -8967,30 +8959,30 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="67.5">
       <c r="A14" s="46" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E14" s="48" t="s">
         <v>466</v>
@@ -8998,30 +8990,30 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="67.5">
       <c r="A15" s="46" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E15" s="48" t="s">
         <v>16</v>
@@ -9029,30 +9021,30 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="33" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="67.5">
       <c r="A16" s="46" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>466</v>
@@ -9060,30 +9052,30 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="33" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="67.5">
       <c r="A17" s="46" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E17" s="48" t="s">
         <v>474</v>
@@ -9091,30 +9083,30 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="33" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="67.5">
       <c r="A18" s="46" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>474</v>
@@ -9122,30 +9114,30 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="81">
       <c r="A19" s="46" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>474</v>
@@ -9153,30 +9145,30 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="33" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="54">
       <c r="A20" s="46" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>474</v>
@@ -9184,30 +9176,30 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="33" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="81">
       <c r="A21" s="46" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>16</v>
@@ -9215,30 +9207,30 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="33" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="81">
       <c r="A22" s="46" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>466</v>
@@ -9246,30 +9238,30 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="67.5">
       <c r="A23" s="46" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>474</v>
@@ -9277,30 +9269,30 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="33" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="81">
       <c r="A24" s="46" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>466</v>
@@ -9308,30 +9300,30 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="33" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="46" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="148.5">
       <c r="A25" s="46" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>59</v>
@@ -9339,32 +9331,30 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="33" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>1442</v>
-      </c>
+        <v>1438</v>
+      </c>
+      <c r="J25" s="32"/>
       <c r="K25" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" ht="81">
       <c r="A26" s="46" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>85</v>
@@ -9372,32 +9362,30 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="33" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>1445</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>1442</v>
-      </c>
+        <v>1441</v>
+      </c>
+      <c r="J26" s="32"/>
       <c r="K26" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="54">
       <c r="A27" s="46" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>59</v>
@@ -9405,32 +9393,30 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>1448</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>1449</v>
-      </c>
+        <v>1444</v>
+      </c>
+      <c r="J27" s="32"/>
       <c r="K27" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="67.5">
       <c r="A28" s="46" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>59</v>
@@ -9438,32 +9424,30 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="33" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>1452</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>1449</v>
-      </c>
+        <v>1447</v>
+      </c>
+      <c r="J28" s="32"/>
       <c r="K28" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" ht="81">
       <c r="A29" s="46" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>13</v>
@@ -9471,32 +9455,30 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="33" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>1455</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>1449</v>
-      </c>
+        <v>1450</v>
+      </c>
+      <c r="J29" s="32"/>
       <c r="K29" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="81">
       <c r="A30" s="46" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>13</v>
@@ -9504,32 +9486,30 @@
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>1442</v>
-      </c>
+        <v>1453</v>
+      </c>
+      <c r="J30" s="32"/>
       <c r="K30" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="67.5">
       <c r="A31" s="46" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>85</v>
@@ -9537,32 +9517,30 @@
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>1442</v>
-      </c>
+        <v>1456</v>
+      </c>
+      <c r="J31" s="32"/>
       <c r="K31" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="54">
       <c r="A32" s="46" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>85</v>
@@ -9570,131 +9548,129 @@
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>1464</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>1442</v>
-      </c>
+        <v>1459</v>
+      </c>
+      <c r="J32" s="32"/>
       <c r="K32" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" ht="40.5">
       <c r="A33" s="46" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="33" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="J33" s="32"/>
       <c r="K33" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="40.5">
       <c r="A34" s="46" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="B34" s="32" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>1429</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>1432</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="33" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="J34" s="32"/>
       <c r="K34" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" ht="40.5">
       <c r="A35" s="46" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="33" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" ht="54">
       <c r="A36" s="46" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>466</v>
@@ -9702,30 +9678,30 @@
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="J36" s="32"/>
       <c r="K36" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L36" s="32"/>
       <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13" ht="81">
       <c r="A37" s="46" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>474</v>
@@ -9733,195 +9709,195 @@
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="J37" s="32"/>
       <c r="K37" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="94.5">
       <c r="A38" s="46" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="33" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="J38" s="32"/>
       <c r="K38" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13" ht="94.5">
       <c r="A39" s="46" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>474</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="33" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="J39" s="32"/>
       <c r="K39" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" ht="121.5">
       <c r="A40" s="46" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="E40" s="32" t="s">
         <v>474</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="G40" s="32"/>
       <c r="H40" s="33" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="J40" s="32"/>
       <c r="K40" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" ht="108">
       <c r="A41" s="46" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="33" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="J41" s="32"/>
       <c r="K41" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
     </row>
     <row r="42" spans="1:13" ht="162">
       <c r="A42" s="46" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="33" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="J42" s="32"/>
       <c r="K42" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="54">
       <c r="A43" s="46" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>16</v>
@@ -9929,30 +9905,30 @@
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="33" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="J43" s="32"/>
       <c r="K43" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="54">
       <c r="A44" s="46" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>466</v>
@@ -9960,63 +9936,63 @@
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="33" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
     </row>
     <row r="45" spans="1:13" ht="27">
       <c r="A45" s="46" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="33" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="J45" s="32"/>
       <c r="K45" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
     </row>
     <row r="46" spans="1:13" ht="67.5">
       <c r="A46" s="46" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>16</v>
@@ -10024,30 +10000,30 @@
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="33" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="I46" s="33" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="J46" s="32"/>
       <c r="K46" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:13" ht="67.5">
       <c r="A47" s="46" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>16</v>
@@ -10055,30 +10031,30 @@
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="33" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="J47" s="32"/>
       <c r="K47" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
     </row>
     <row r="48" spans="1:13" ht="54">
       <c r="A48" s="46" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="E48" s="32" t="s">
         <v>16</v>
@@ -10086,30 +10062,30 @@
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="33" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="J48" s="32"/>
       <c r="K48" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
     </row>
     <row r="49" spans="1:13" ht="81">
       <c r="A49" s="46" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="E49" s="32" t="s">
         <v>85</v>
@@ -10117,30 +10093,30 @@
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="33" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="J49" s="32"/>
       <c r="K49" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
     </row>
     <row r="50" spans="1:13" ht="81">
       <c r="A50" s="46" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>85</v>
@@ -10148,30 +10124,30 @@
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="33" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="J50" s="32"/>
       <c r="K50" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L50" s="32"/>
       <c r="M50" s="32"/>
     </row>
     <row r="51" spans="1:13" ht="67.5">
       <c r="A51" s="46" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>85</v>
@@ -10179,30 +10155,30 @@
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="33" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="J51" s="32"/>
       <c r="K51" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
     </row>
     <row r="52" spans="1:13" ht="67.5">
       <c r="A52" s="46" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="E52" s="32" t="s">
         <v>85</v>
@@ -10210,30 +10186,30 @@
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="33" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="J52" s="32"/>
       <c r="K52" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L52" s="32"/>
       <c r="M52" s="32"/>
     </row>
     <row r="53" spans="1:13" ht="67.5">
       <c r="A53" s="46" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="E53" s="32" t="s">
         <v>85</v>
@@ -10241,30 +10217,30 @@
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="33" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="J53" s="32"/>
       <c r="K53" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
     </row>
     <row r="54" spans="1:13" ht="67.5">
       <c r="A54" s="46" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>466</v>
@@ -10272,63 +10248,63 @@
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="33" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="J54" s="32"/>
       <c r="K54" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L54" s="32"/>
       <c r="M54" s="32"/>
     </row>
     <row r="55" spans="1:13" ht="54">
       <c r="A55" s="46" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="E55" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="33" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="J55" s="32"/>
       <c r="K55" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
     </row>
     <row r="56" spans="1:13" ht="67.5">
       <c r="A56" s="46" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="E56" s="32" t="s">
         <v>16</v>
@@ -10336,30 +10312,30 @@
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
       <c r="H56" s="33" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="J56" s="32"/>
       <c r="K56" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:13" ht="67.5">
       <c r="A57" s="46" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>16</v>
@@ -10367,30 +10343,30 @@
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="33" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="J57" s="32"/>
       <c r="K57" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
     </row>
     <row r="58" spans="1:13" ht="54">
       <c r="A58" s="46" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>16</v>
@@ -10398,30 +10374,30 @@
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="33" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="J58" s="32"/>
       <c r="K58" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:13" ht="40.5">
       <c r="A59" s="46" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C59" s="32" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D59" s="33" t="s">
         <v>1477</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>1482</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>16</v>
@@ -10429,30 +10405,30 @@
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="33" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="J59" s="32"/>
       <c r="K59" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
     </row>
     <row r="60" spans="1:13" ht="81">
       <c r="A60" s="46" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="E60" s="32" t="s">
         <v>466</v>
@@ -10460,14 +10436,14 @@
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="33" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="J60" s="32"/>
       <c r="K60" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L60" s="32"/>
       <c r="M60" s="32"/>
@@ -10545,13 +10521,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="53"/>
       <c r="B2" s="22" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -10567,243 +10543,243 @@
     </row>
     <row r="3" spans="1:13" ht="41.25">
       <c r="A3" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>1185</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>1188</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="11" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="41.25">
       <c r="A4" s="19" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>1192</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>1193</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>1196</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="41.25">
       <c r="A5" s="19" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>1199</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>1202</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="41.25">
       <c r="A6" s="19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>1208</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>1211</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="41.25">
       <c r="A7" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>1212</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>1215</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="54.75">
       <c r="A8" s="19" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>1207</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>1210</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="54.75">
       <c r="A9" s="19" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>1207</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>1210</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="81.75">
       <c r="A10" s="19" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>59</v>
@@ -10811,1278 +10787,1278 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="11" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="108.75">
       <c r="A11" s="19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="E11" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>1230</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>1233</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="41.25">
       <c r="A12" s="19" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="54.75">
       <c r="A13" s="19" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="54.75">
       <c r="A14" s="19" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>1210</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="11" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="54.75">
       <c r="A15" s="19" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>1247</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>1248</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>1249</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>1252</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="54.75">
       <c r="A16" s="19" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>1210</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="54.75">
       <c r="A17" s="19" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="108.75">
       <c r="A18" s="19" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="54.75">
       <c r="A19" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>1266</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>1269</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="95.25">
       <c r="A20" s="19" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="54.75">
       <c r="A21" s="19" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="54.75">
       <c r="A22" s="19" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="68.25">
       <c r="A23" s="19" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="41.25">
       <c r="A24" s="19" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>1210</v>
-      </c>
       <c r="F24" s="11" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="54.75">
       <c r="A25" s="19" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>1293</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>1296</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="68.25">
       <c r="A26" s="19" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="68.25">
       <c r="A27" s="19" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="81.75">
       <c r="A28" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>1303</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>1306</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" ht="54.75">
       <c r="A29" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>1311</v>
-      </c>
       <c r="K29" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="54.75">
       <c r="A30" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>1315</v>
-      </c>
       <c r="K30" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="54.75">
       <c r="A31" s="19" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="54.75">
       <c r="A32" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>1322</v>
-      </c>
       <c r="K32" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="68.25">
       <c r="A33" s="19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>1323</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="I33" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>1327</v>
-      </c>
       <c r="K33" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="68.25">
       <c r="A34" s="19" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="68.25">
       <c r="A35" s="19" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="11" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="68.25">
       <c r="A36" s="19" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="11" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="81.75">
       <c r="A37" s="19" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="F37" s="1"/>
       <c r="H37" s="11" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="81.75">
       <c r="A38" s="19" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="F38" s="1"/>
       <c r="H38" s="11" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="81.75">
       <c r="A39" s="19" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="F39" s="1"/>
       <c r="H39" s="11" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="108.75">
       <c r="A40" s="19" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F40" s="1"/>
       <c r="H40" s="11" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="81.75">
       <c r="A41" s="19" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>1354</v>
-      </c>
       <c r="K41" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="81.75">
       <c r="A42" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>1358</v>
-      </c>
       <c r="K42" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="81.75">
       <c r="A43" s="19" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="F43" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>1363</v>
-      </c>
       <c r="K43" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="81.75">
       <c r="A44" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>1367</v>
-      </c>
       <c r="K44" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="81.75">
       <c r="A45" s="19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="H45" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>1372</v>
-      </c>
       <c r="K45" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="108.75">
       <c r="A46" s="19" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>1376</v>
-      </c>
       <c r="K46" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="81.75">
       <c r="A47" s="19" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F47" s="1"/>
       <c r="H47" s="11" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="81.75">
       <c r="A48" s="19" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F48" s="1"/>
       <c r="H48" s="11" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="108.75">
       <c r="A49" s="19" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>1388</v>
-      </c>
       <c r="K49" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="95.25">
       <c r="A50" s="19" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>1392</v>
-      </c>
       <c r="K50" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="95.25">
       <c r="A51" s="19" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F51" s="1"/>
       <c r="H51" s="11" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="81.75">
       <c r="A52" s="19" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F52" s="1"/>
       <c r="H52" s="11" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -12293,7 +12269,7 @@
         <v>200</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
@@ -12311,7 +12287,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
@@ -12319,10 +12295,10 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="11" t="s">
@@ -12477,7 +12453,7 @@
         <v>201</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="11" t="s">
@@ -12508,7 +12484,7 @@
         <v>201</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="11" t="s">
@@ -12570,7 +12546,7 @@
         <v>201</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="11" t="s">
@@ -13152,7 +13128,7 @@
         <v>195</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>425</v>
@@ -13864,7 +13840,7 @@
     </row>
     <row r="61" spans="1:13" ht="108.75">
       <c r="A61" s="19" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>165</v>
@@ -13873,16 +13849,16 @@
         <v>214</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>425</v>
@@ -14469,7 +14445,7 @@
     </row>
     <row r="84" spans="1:13" ht="95.25">
       <c r="A84" s="19" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>164</v>
@@ -14478,16 +14454,16 @@
         <v>303</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>425</v>
@@ -15467,45 +15443,45 @@
         <v>452</v>
       </c>
       <c r="E1" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>589</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>593</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>595</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="54">
       <c r="A2" s="32" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>16</v>
@@ -15513,30 +15489,30 @@
       <c r="F2" s="33"/>
       <c r="G2" s="32"/>
       <c r="H2" s="33" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="67.5">
       <c r="A3" s="32" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>16</v>
@@ -15544,30 +15520,30 @@
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
       <c r="H3" s="33" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="54">
       <c r="A4" s="32" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>16</v>
@@ -15575,30 +15551,30 @@
       <c r="F4" s="33"/>
       <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
+        <v>901</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>904</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>907</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="40.5">
       <c r="A5" s="32" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>466</v>
@@ -15606,30 +15582,30 @@
       <c r="F5" s="33"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="40.5">
       <c r="A6" s="32" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>474</v>
@@ -15637,43 +15613,43 @@
       <c r="F6" s="33"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="40.5">
       <c r="A7" s="32" t="s">
+        <v>908</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>911</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>914</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
@@ -15780,7 +15756,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>59</v>
@@ -15790,7 +15766,7 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>62</v>
@@ -15811,7 +15787,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>13</v>
@@ -15821,7 +15797,7 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>63</v>
@@ -15842,7 +15818,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>13</v>
@@ -15852,7 +15828,7 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>65</v>
@@ -15883,7 +15859,7 @@
         <v>70</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>67</v>
@@ -15914,7 +15890,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>67</v>
@@ -15945,7 +15921,7 @@
         <v>73</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>67</v>
@@ -15973,10 +15949,10 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>67</v>
@@ -15997,7 +15973,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>13</v>
@@ -16005,10 +15981,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="11" t="s">
@@ -16026,7 +16002,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>59</v>
@@ -16034,10 +16010,10 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="11" t="s">
@@ -16063,7 +16039,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>75</v>
@@ -16077,7 +16053,7 @@
     </row>
     <row r="13" spans="1:13" ht="41.25">
       <c r="A13" s="19" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>58</v>
@@ -16094,7 +16070,7 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>78</v>
@@ -16108,25 +16084,25 @@
     </row>
     <row r="14" spans="1:13" ht="41.25">
       <c r="A14" s="19" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>425</v>
@@ -16134,22 +16110,22 @@
     </row>
     <row r="15" spans="1:13" ht="41.25">
       <c r="A15" s="19" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>425</v>
@@ -16157,22 +16133,22 @@
     </row>
     <row r="16" spans="1:13" ht="54.75">
       <c r="A16" s="19" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>425</v>
@@ -16197,9 +16173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16432,7 +16408,7 @@
         <v>492</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>493</v>
+        <v>1600</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>466</v>
@@ -16440,10 +16416,10 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>494</v>
+        <v>1601</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>495</v>
+        <v>1602</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
@@ -16454,7 +16430,7 @@
     </row>
     <row r="8" spans="1:13" ht="40.5">
       <c r="A8" s="25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>472</v>
@@ -16463,7 +16439,7 @@
         <v>492</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>16</v>
@@ -16471,10 +16447,10 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27" t="s">
@@ -16485,7 +16461,7 @@
     </row>
     <row r="9" spans="1:13" ht="40.5">
       <c r="A9" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>472</v>
@@ -16494,7 +16470,7 @@
         <v>492</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>466</v>
@@ -16502,10 +16478,10 @@
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27" t="s">
@@ -16516,16 +16492,16 @@
     </row>
     <row r="10" spans="1:13" ht="27">
       <c r="A10" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>472</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>466</v>
@@ -16533,30 +16509,30 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="40.5">
       <c r="A11" s="25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>474</v>
@@ -16564,30 +16540,30 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" ht="27">
       <c r="A12" s="25" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>466</v>
@@ -16595,63 +16571,63 @@
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13" ht="40.5">
       <c r="A13" s="25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>474</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13" ht="40.5">
       <c r="A14" s="25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>474</v>
@@ -16659,30 +16635,30 @@
       <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="27" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:13" ht="67.5">
       <c r="A15" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>16</v>
@@ -16690,30 +16666,30 @@
       <c r="F15" s="27"/>
       <c r="G15" s="25"/>
       <c r="H15" s="27" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="67.5">
       <c r="A16" s="25" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>466</v>
@@ -16721,30 +16697,30 @@
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A17" s="49" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E17" s="49" t="s">
         <v>466</v>
@@ -16752,10 +16728,10 @@
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="J17" s="50"/>
       <c r="K17" s="50" t="s">
@@ -16766,16 +16742,16 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="40.5">
       <c r="A18" s="49" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E18" s="49" t="s">
         <v>474</v>
@@ -16783,10 +16759,10 @@
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="50" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J18" s="50"/>
       <c r="K18" s="50" t="s">
@@ -16795,21 +16771,21 @@
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
       <c r="O18" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A19" s="49" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>466</v>
@@ -16817,10 +16793,10 @@
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="50" t="s">
@@ -16831,29 +16807,29 @@
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="40.5">
       <c r="A20" s="49" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>474</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="50" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="50" t="s">
@@ -16864,16 +16840,16 @@
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="40.5">
       <c r="A21" s="49" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>474</v>
@@ -16881,10 +16857,10 @@
       <c r="F21" s="50"/>
       <c r="G21" s="49"/>
       <c r="H21" s="50" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="50" t="s">
@@ -16895,16 +16871,16 @@
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="67.5">
       <c r="A22" s="49" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B22" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>16</v>
@@ -16912,10 +16888,10 @@
       <c r="F22" s="50"/>
       <c r="G22" s="49"/>
       <c r="H22" s="50" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J22" s="51"/>
       <c r="K22" s="50" t="s">
@@ -16926,16 +16902,16 @@
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="67.5">
       <c r="A23" s="49" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>463</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>466</v>
@@ -16943,10 +16919,10 @@
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J23" s="51"/>
       <c r="K23" s="50" t="s">
@@ -16957,16 +16933,16 @@
     </row>
     <row r="24" spans="1:15" ht="81">
       <c r="A24" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>16</v>
@@ -16974,28 +16950,28 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:15" ht="67.5">
       <c r="A25" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="27" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>466</v>
@@ -17003,30 +16979,30 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
     <row r="26" spans="1:15" ht="121.5">
       <c r="A26" s="25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>16</v>
@@ -17034,30 +17010,30 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:15" ht="67.5">
       <c r="A27" s="25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>16</v>
@@ -17065,28 +17041,28 @@
       <c r="F27" s="27"/>
       <c r="G27" s="25"/>
       <c r="H27" s="27" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:15" ht="54">
       <c r="A28" s="25" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="27" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>16</v>
@@ -17094,28 +17070,28 @@
       <c r="F28" s="27"/>
       <c r="G28" s="25"/>
       <c r="H28" s="27" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:15" ht="54">
       <c r="A29" s="25" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>16</v>
@@ -17123,28 +17099,28 @@
       <c r="F29" s="27"/>
       <c r="G29" s="25"/>
       <c r="H29" s="27" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:15" ht="67.5">
       <c r="A30" s="25" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>466</v>
@@ -17152,138 +17128,138 @@
       <c r="F30" s="27"/>
       <c r="G30" s="25"/>
       <c r="H30" s="27" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:15" ht="40.5">
       <c r="A31" s="25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="27" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>474</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="27" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:15" ht="54">
       <c r="A32" s="25" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="27" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>466</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="27" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" ht="54">
       <c r="A33" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>466</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J33" s="25"/>
       <c r="K33" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" ht="40.5">
       <c r="A34" s="25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J34" s="25"/>
       <c r="K34" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -17328,90 +17304,90 @@
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1">
       <c r="A1" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>613</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>614</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>620</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>621</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>622</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="54">
       <c r="A2" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>624</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>626</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>627</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="33" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="67.5">
       <c r="A3" s="32" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>16</v>
@@ -17419,30 +17395,30 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="33" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="54">
       <c r="A4" s="32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>639</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>642</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>466</v>
@@ -17450,30 +17426,30 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="67.5">
       <c r="A5" s="32" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>16</v>
@@ -17481,30 +17457,30 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="81">
       <c r="A6" s="32" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>466</v>
@@ -17512,30 +17488,30 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="67.5">
       <c r="A7" s="32" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>474</v>
@@ -17543,30 +17519,30 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="67.5">
       <c r="A8" s="32" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>474</v>
@@ -17574,30 +17550,30 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="67.5">
       <c r="A9" s="32" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>474</v>
@@ -17605,30 +17581,30 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="67.5">
       <c r="A10" s="32" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>474</v>
@@ -17636,61 +17612,61 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="33" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="81">
       <c r="A11" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="33" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>474</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="81">
       <c r="A12" s="32" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>16</v>
@@ -17698,224 +17674,224 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="33" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="81">
       <c r="A13" s="32" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="54">
       <c r="A14" s="32" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="54">
       <c r="A15" s="32" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="54">
       <c r="A16" s="32" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="33" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="54">
       <c r="A17" s="32" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="33" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="54">
       <c r="A18" s="32" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="67.5">
       <c r="A19" s="32" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>16</v>
@@ -17923,14 +17899,14 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="33" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -17963,7 +17939,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1">
       <c r="A1" s="41" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>1</v>
@@ -18004,49 +17980,49 @@
     </row>
     <row r="2" spans="1:13" ht="54">
       <c r="A2" s="32" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="67.5">
       <c r="A3" s="32" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>16</v>
@@ -18054,30 +18030,30 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="54">
       <c r="A4" s="32" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>466</v>
@@ -18085,30 +18061,30 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="67.5">
       <c r="A5" s="32" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>16</v>
@@ -18116,30 +18092,30 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="81">
       <c r="A6" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>719</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>721</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>722</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>466</v>
@@ -18147,30 +18123,30 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="67.5">
       <c r="A7" s="32" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>474</v>
@@ -18178,30 +18154,30 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="67.5">
       <c r="A8" s="32" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>474</v>
@@ -18209,30 +18185,30 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="67.5">
       <c r="A9" s="32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>474</v>
@@ -18240,30 +18216,30 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="67.5">
       <c r="A10" s="32" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>474</v>
@@ -18271,123 +18247,123 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="33" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="81">
       <c r="A11" s="32" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>474</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="81">
       <c r="A12" s="32" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="33" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="94.5">
       <c r="A13" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="81">
       <c r="A14" s="32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>16</v>
@@ -18395,96 +18371,96 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="54">
       <c r="A15" s="32" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="54">
       <c r="A16" s="32" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="33" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="54">
       <c r="A17" s="32" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>466</v>
@@ -18492,61 +18468,61 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="33" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="54">
       <c r="A18" s="32" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="54">
       <c r="A19" s="32" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>16</v>
@@ -18554,14 +18530,14 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="33" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -18598,90 +18574,90 @@
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1">
       <c r="A1" s="41" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>788</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>789</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>790</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>791</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>792</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>794</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>795</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>796</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>797</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>798</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="54">
       <c r="A2" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="33" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="67.5">
       <c r="A3" s="32" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>16</v>
@@ -18689,30 +18665,30 @@
       <c r="F3" s="36"/>
       <c r="G3" s="32"/>
       <c r="H3" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="54">
       <c r="A4" s="32" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>466</v>
@@ -18720,30 +18696,30 @@
       <c r="F4" s="36"/>
       <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="67.5">
       <c r="A5" s="32" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>16</v>
@@ -18751,30 +18727,30 @@
       <c r="F5" s="36"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="81">
       <c r="A6" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>466</v>
@@ -18782,30 +18758,30 @@
       <c r="F6" s="36"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="67.5">
       <c r="A7" s="32" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>474</v>
@@ -18813,30 +18789,30 @@
       <c r="F7" s="36"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="67.5">
       <c r="A8" s="32" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>474</v>
@@ -18844,30 +18820,30 @@
       <c r="F8" s="36"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="67.5">
       <c r="A9" s="32" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>474</v>
@@ -18875,30 +18851,30 @@
       <c r="F9" s="36"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="67.5">
       <c r="A10" s="32" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>474</v>
@@ -18906,63 +18882,63 @@
       <c r="F10" s="36"/>
       <c r="G10" s="32"/>
       <c r="H10" s="33" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="81">
       <c r="A11" s="32" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>474</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="81">
       <c r="A12" s="32" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>16</v>
@@ -18970,125 +18946,125 @@
       <c r="F12" s="36"/>
       <c r="G12" s="32"/>
       <c r="H12" s="33" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="54">
       <c r="A13" s="32" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="54">
       <c r="A14" s="32" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="36"/>
       <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="54">
       <c r="A15" s="32" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>466</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="81">
       <c r="A16" s="32" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>16</v>
@@ -19096,14 +19072,14 @@
       <c r="F16" s="36"/>
       <c r="G16" s="32"/>
       <c r="H16" s="33" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -19133,7 +19109,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1">
       <c r="A1" s="41" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>1</v>
@@ -19174,16 +19150,16 @@
     </row>
     <row r="2" spans="1:13" ht="40.5">
       <c r="A2" s="32" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>466</v>
@@ -19191,30 +19167,30 @@
       <c r="F2" s="33"/>
       <c r="G2" s="32"/>
       <c r="H2" s="33" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="40.5">
       <c r="A3" s="32" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>474</v>
@@ -19222,30 +19198,30 @@
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
       <c r="H3" s="33" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="40.5">
       <c r="A4" s="32" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>16</v>
@@ -19253,30 +19229,30 @@
       <c r="F4" s="33"/>
       <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="67.5">
       <c r="A5" s="32" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>16</v>
@@ -19284,30 +19260,30 @@
       <c r="F5" s="33"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="81">
       <c r="A6" s="32" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>474</v>
@@ -19315,30 +19291,30 @@
       <c r="F6" s="33"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="94.5">
       <c r="A7" s="32" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>16</v>
@@ -19346,30 +19322,30 @@
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="81">
       <c r="A8" s="32" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>474</v>
@@ -19377,30 +19353,30 @@
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="81">
       <c r="A9" s="32" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>474</v>
@@ -19408,30 +19384,30 @@
       <c r="F9" s="33"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="67.5">
       <c r="A10" s="32" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>16</v>
@@ -19439,30 +19415,30 @@
       <c r="F10" s="33"/>
       <c r="G10" s="32"/>
       <c r="H10" s="33" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="81">
       <c r="A11" s="32" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>474</v>
@@ -19470,30 +19446,30 @@
       <c r="F11" s="33"/>
       <c r="G11" s="32"/>
       <c r="H11" s="33" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="94.5">
       <c r="A12" s="32" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>474</v>
@@ -19501,30 +19477,30 @@
       <c r="F12" s="33"/>
       <c r="G12" s="32"/>
       <c r="H12" s="33" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="94.5">
       <c r="A13" s="32" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>474</v>
@@ -19532,30 +19508,30 @@
       <c r="F13" s="33"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="94.5">
       <c r="A14" s="32" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>474</v>
@@ -19563,63 +19539,63 @@
       <c r="F14" s="33"/>
       <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="27">
       <c r="A15" s="32" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>466</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="27">
       <c r="A16" s="32" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>16</v>
@@ -19627,63 +19603,63 @@
       <c r="F16" s="33"/>
       <c r="G16" s="32"/>
       <c r="H16" s="33" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="40.5">
       <c r="A17" s="32" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="33" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="135">
       <c r="A18" s="32" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>16</v>
@@ -19691,30 +19667,30 @@
       <c r="F18" s="33"/>
       <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="81">
       <c r="A19" s="32" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>16</v>
@@ -19722,30 +19698,30 @@
       <c r="F19" s="33"/>
       <c r="G19" s="32"/>
       <c r="H19" s="33" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="81">
       <c r="A20" s="32" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>16</v>
@@ -19753,30 +19729,30 @@
       <c r="F20" s="33"/>
       <c r="G20" s="32"/>
       <c r="H20" s="33" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="81">
       <c r="A21" s="32" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>16</v>
@@ -19784,30 +19760,30 @@
       <c r="F21" s="33"/>
       <c r="G21" s="32"/>
       <c r="H21" s="33" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="81">
       <c r="A22" s="32" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>16</v>
@@ -19815,30 +19791,30 @@
       <c r="F22" s="33"/>
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="81">
       <c r="A23" s="32" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>16</v>
@@ -19846,30 +19822,30 @@
       <c r="F23" s="33"/>
       <c r="G23" s="32"/>
       <c r="H23" s="33" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="81">
       <c r="A24" s="32" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>16</v>
@@ -19877,30 +19853,30 @@
       <c r="F24" s="33"/>
       <c r="G24" s="32"/>
       <c r="H24" s="33" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="81">
       <c r="A25" s="32" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>16</v>
@@ -19908,30 +19884,30 @@
       <c r="F25" s="33"/>
       <c r="G25" s="32"/>
       <c r="H25" s="33" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J25" s="32"/>
       <c r="K25" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" ht="67.5">
       <c r="A26" s="32" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>16</v>
@@ -19939,30 +19915,30 @@
       <c r="F26" s="33"/>
       <c r="G26" s="32"/>
       <c r="H26" s="33" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="67.5">
       <c r="A27" s="32" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>16</v>
@@ -19970,30 +19946,30 @@
       <c r="F27" s="33"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J27" s="32"/>
       <c r="K27" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="67.5">
       <c r="A28" s="32" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>16</v>
@@ -20001,30 +19977,30 @@
       <c r="F28" s="33"/>
       <c r="G28" s="32"/>
       <c r="H28" s="33" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J28" s="32"/>
       <c r="K28" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" ht="67.5">
       <c r="A29" s="32" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>819</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>822</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>16</v>
@@ -20032,30 +20008,30 @@
       <c r="F29" s="33"/>
       <c r="G29" s="32"/>
       <c r="H29" s="33" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="67.5">
       <c r="A30" s="32" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>16</v>
@@ -20063,30 +20039,30 @@
       <c r="F30" s="33"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J30" s="32"/>
       <c r="K30" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="67.5">
       <c r="A31" s="32" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>16</v>
@@ -20094,30 +20070,30 @@
       <c r="F31" s="33"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J31" s="32"/>
       <c r="K31" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="67.5">
       <c r="A32" s="32" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>16</v>
@@ -20125,30 +20101,30 @@
       <c r="F32" s="33"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J32" s="32"/>
       <c r="K32" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" ht="67.5">
       <c r="A33" s="32" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>474</v>
@@ -20156,30 +20132,30 @@
       <c r="F33" s="33"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J33" s="32"/>
       <c r="K33" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="81">
       <c r="A34" s="32" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>474</v>
@@ -20187,30 +20163,30 @@
       <c r="F34" s="33"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J34" s="32"/>
       <c r="K34" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" ht="94.5">
       <c r="A35" s="32" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>474</v>
@@ -20218,14 +20194,14 @@
       <c r="F35" s="33"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
